--- a/src/test/java/gbench/webapps/mymall/api/model/data/acct_data.xlsx
+++ b/src/test/java/gbench/webapps/mymall/api/model/data/acct_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\slicef\ws\gitws\malonylcoa\src\test\java\gbench\webapps\mymall\api\model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3367B98-B172-4156-868C-24E52572C2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF05573-DB24-4C37-92DC-268C8F738670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" firstSheet="10" activeTab="13" xr2:uid="{9F52F4E2-D186-4BF8-BDC0-8A6A204FCC8B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" firstSheet="10" activeTab="11" xr2:uid="{9F52F4E2-D186-4BF8-BDC0-8A6A204FCC8B}"/>
   </bookViews>
   <sheets>
     <sheet name="t_user" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="1633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="1634">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5477,6 +5477,10 @@
   </si>
   <si>
     <t>订单甲方/买方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoice_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8980,9 +8984,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F73FA18-B987-444A-B339-09CE35D7E8C2}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8990,12 +8996,12 @@
     <col min="2" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="56.875" customWidth="1"/>
-    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="56.875" customWidth="1"/>
+    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9015,16 +9021,19 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9043,17 +9052,20 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>1614</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>45296.99722222222</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9072,13 +9084,16 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>1615</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>45296.99722222222</v>
       </c>
     </row>
@@ -9202,7 +9217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D2F96A-1206-4BE2-BA64-3DDEC9C031F1}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
